--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.6273</v>
+        <v>-12.82309999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.1523</v>
+        <v>-14.1086</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.701999999999999</v>
+        <v>-7.551300000000003</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.568</v>
+        <v>-11.8331</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.147999999999995</v>
+        <v>-7.062999999999996</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.86269999999998</v>
+        <v>-11.91179999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.328699999999998</v>
+        <v>-7.820299999999996</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.629000000000001</v>
+        <v>5.364300000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.26740000000001</v>
+        <v>13.4273</v>
       </c>
     </row>
     <row r="12">
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.539499999999996</v>
+        <v>5.5229</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.63970000000002</v>
+        <v>-14.73390000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,13 +672,13 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.1331</v>
+        <v>-12.1103</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.63950000000001</v>
+        <v>14.0665</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.792799999999999</v>
+        <v>5.839100000000005</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.040999999999993</v>
+        <v>-8.111099999999993</v>
       </c>
       <c r="E19" t="n">
-        <v>13.764</v>
+        <v>13.806</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.917300000000001</v>
+        <v>-7.543000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.37250000000002</v>
+        <v>13.7893</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.14779999999999</v>
+        <v>-11.79609999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.471699999999996</v>
+        <v>-7.522899999999995</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.513899999999998</v>
+        <v>-7.574699999999996</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
